--- a/analysis/mails_01/P01_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P01_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -69,6 +69,12 @@
     <t xml:space="preserve">2018-07-11</t>
   </si>
   <si>
+    <t xml:space="preserve">56.788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9068</t>
+  </si>
+  <si>
     <t xml:space="preserve">natural_soil</t>
   </si>
   <si>
@@ -93,6 +99,12 @@
     <t xml:space="preserve">2018-08-01</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1767</t>
+  </si>
+  <si>
     <t xml:space="preserve">havkær skov</t>
   </si>
   <si>
@@ -105,6 +117,12 @@
     <t xml:space="preserve">2018-08-15</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.932</t>
+  </si>
+  <si>
     <t xml:space="preserve">karls mølle bæk</t>
   </si>
   <si>
@@ -117,6 +135,12 @@
     <t xml:space="preserve">2018-07-18</t>
   </si>
   <si>
+    <t xml:space="preserve">56.588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8998</t>
+  </si>
+  <si>
     <t xml:space="preserve">senderkær bæk</t>
   </si>
   <si>
@@ -129,6 +153,12 @@
     <t xml:space="preserve">2018-08-07</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6757</t>
+  </si>
+  <si>
     <t xml:space="preserve">oerum</t>
   </si>
   <si>
@@ -141,6 +171,12 @@
     <t xml:space="preserve">2018-07-10</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6257</t>
+  </si>
+  <si>
     <t xml:space="preserve">skærbækvej</t>
   </si>
   <si>
@@ -153,6 +189,12 @@
     <t xml:space="preserve">2018-08-06</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6789</t>
+  </si>
+  <si>
     <t xml:space="preserve">kongensbro</t>
   </si>
   <si>
@@ -162,6 +204,12 @@
     <t xml:space="preserve">MFD00413</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0583</t>
+  </si>
+  <si>
     <t xml:space="preserve">tistedvej</t>
   </si>
   <si>
@@ -171,6 +219,12 @@
     <t xml:space="preserve">MFD00414</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9385</t>
+  </si>
+  <si>
     <t xml:space="preserve">kielstrup sø</t>
   </si>
   <si>
@@ -183,6 +237,12 @@
     <t xml:space="preserve">2018-07-12</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9201</t>
+  </si>
+  <si>
     <t xml:space="preserve">østerkær</t>
   </si>
   <si>
@@ -192,6 +252,12 @@
     <t xml:space="preserve">MFD00416</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1398</t>
+  </si>
+  <si>
     <t xml:space="preserve">havndalsvej</t>
   </si>
   <si>
@@ -201,6 +267,12 @@
     <t xml:space="preserve">MFD00417</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0999</t>
+  </si>
+  <si>
     <t xml:space="preserve">fosevej</t>
   </si>
   <si>
@@ -210,6 +282,12 @@
     <t xml:space="preserve">MFD00418</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1143</t>
+  </si>
+  <si>
     <t xml:space="preserve">sem</t>
   </si>
   <si>
@@ -222,6 +300,12 @@
     <t xml:space="preserve">2018-07-19</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0525</t>
+  </si>
+  <si>
     <t xml:space="preserve">kærby</t>
   </si>
   <si>
@@ -231,6 +315,12 @@
     <t xml:space="preserve">MFD00420</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.846</t>
+  </si>
+  <si>
     <t xml:space="preserve">oeslanggaard</t>
   </si>
   <si>
@@ -243,6 +333,12 @@
     <t xml:space="preserve">2018-07-16</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8652</t>
+  </si>
+  <si>
     <t xml:space="preserve">rejstrup</t>
   </si>
   <si>
@@ -255,6 +351,12 @@
     <t xml:space="preserve">2018-08-08</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8577</t>
+  </si>
+  <si>
     <t xml:space="preserve">vinborgvej</t>
   </si>
   <si>
@@ -264,6 +366,12 @@
     <t xml:space="preserve">MFD00423</t>
   </si>
   <si>
+    <t xml:space="preserve">56.438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5243</t>
+  </si>
+  <si>
     <t xml:space="preserve">noerreaastien</t>
   </si>
   <si>
@@ -276,6 +384,12 @@
     <t xml:space="preserve">2018-07-20</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5822</t>
+  </si>
+  <si>
     <t xml:space="preserve">løvskal landevej</t>
   </si>
   <si>
@@ -285,6 +399,12 @@
     <t xml:space="preserve">MFD00425</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4631</t>
+  </si>
+  <si>
     <t xml:space="preserve">vinkelvej</t>
   </si>
   <si>
@@ -297,6 +417,12 @@
     <t xml:space="preserve">2018-07-09</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9121</t>
+  </si>
+  <si>
     <t xml:space="preserve">gudenå engene</t>
   </si>
   <si>
@@ -306,6 +432,12 @@
     <t xml:space="preserve">MFD00427</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.348</t>
+  </si>
+  <si>
     <t xml:space="preserve">lykkedalsvej</t>
   </si>
   <si>
@@ -315,6 +447,12 @@
     <t xml:space="preserve">MFD00428</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3313</t>
+  </si>
+  <si>
     <t xml:space="preserve">iverskilde</t>
   </si>
   <si>
@@ -324,6 +462,12 @@
     <t xml:space="preserve">MFD00429</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2419</t>
+  </si>
+  <si>
     <t xml:space="preserve">allingaa</t>
   </si>
   <si>
@@ -333,6 +477,12 @@
     <t xml:space="preserve">MFD00430</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94</t>
+  </si>
+  <si>
     <t xml:space="preserve">truesoe</t>
   </si>
   <si>
@@ -342,6 +492,12 @@
     <t xml:space="preserve">MFD00431</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9969</t>
+  </si>
+  <si>
     <t xml:space="preserve">barsbel</t>
   </si>
   <si>
@@ -351,6 +507,12 @@
     <t xml:space="preserve">MFD00432</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4469</t>
+  </si>
+  <si>
     <t xml:space="preserve">rindsholm</t>
   </si>
   <si>
@@ -363,6 +525,12 @@
     <t xml:space="preserve">2018-07-13</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8673</t>
+  </si>
+  <si>
     <t xml:space="preserve">narren</t>
   </si>
   <si>
@@ -372,6 +540,12 @@
     <t xml:space="preserve">MFD00434</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8246</t>
+  </si>
+  <si>
     <t xml:space="preserve">vasevej</t>
   </si>
   <si>
@@ -384,6 +558,12 @@
     <t xml:space="preserve">2018-07-17</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8133</t>
+  </si>
+  <si>
     <t xml:space="preserve">nedenskov</t>
   </si>
   <si>
@@ -393,6 +573,12 @@
     <t xml:space="preserve">MFD00436</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8289</t>
+  </si>
+  <si>
     <t xml:space="preserve">stokbjergvej</t>
   </si>
   <si>
@@ -405,6 +591,12 @@
     <t xml:space="preserve">2018-08-03</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1707</t>
+  </si>
+  <si>
     <t xml:space="preserve">ajstrup</t>
   </si>
   <si>
@@ -414,6 +606,12 @@
     <t xml:space="preserve">MFD00438</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1681</t>
+  </si>
+  <si>
     <t xml:space="preserve">fasterholt</t>
   </si>
   <si>
@@ -426,6 +624,12 @@
     <t xml:space="preserve">2018-07-31</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2328</t>
+  </si>
+  <si>
     <t xml:space="preserve">hygildvej</t>
   </si>
   <si>
@@ -438,6 +642,12 @@
     <t xml:space="preserve">2018-08-02</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1498</t>
+  </si>
+  <si>
     <t xml:space="preserve">kølvrå mose</t>
   </si>
   <si>
@@ -447,6 +657,12 @@
     <t xml:space="preserve">MFD00441</t>
   </si>
   <si>
+    <t xml:space="preserve">56.359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0997</t>
+  </si>
+  <si>
     <t xml:space="preserve">nederstorp</t>
   </si>
   <si>
@@ -459,6 +675,12 @@
     <t xml:space="preserve">2018-08-09</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9887</t>
+  </si>
+  <si>
     <t xml:space="preserve">toksvigvej</t>
   </si>
   <si>
@@ -468,6 +690,12 @@
     <t xml:space="preserve">MFD00443</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9708</t>
+  </si>
+  <si>
     <t xml:space="preserve">hegildgårdvej</t>
   </si>
   <si>
@@ -477,6 +705,12 @@
     <t xml:space="preserve">MFD00444</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9724</t>
+  </si>
+  <si>
     <t xml:space="preserve">kilderis</t>
   </si>
   <si>
@@ -486,6 +720,12 @@
     <t xml:space="preserve">MFD00445</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0167</t>
+  </si>
+  <si>
     <t xml:space="preserve">herningmotervejen</t>
   </si>
   <si>
@@ -495,6 +735,12 @@
     <t xml:space="preserve">MFD00446</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1422</t>
+  </si>
+  <si>
     <t xml:space="preserve">åhusevej</t>
   </si>
   <si>
@@ -504,6 +750,12 @@
     <t xml:space="preserve">MFD00447</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0921</t>
+  </si>
+  <si>
     <t xml:space="preserve">torpvej</t>
   </si>
   <si>
@@ -513,6 +765,12 @@
     <t xml:space="preserve">MFD00448</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0853</t>
+  </si>
+  <si>
     <t xml:space="preserve">karupvej</t>
   </si>
   <si>
@@ -520,6 +778,12 @@
   </si>
   <si>
     <t xml:space="preserve">MFD00449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.096</t>
   </si>
   <si>
     <t xml:space="preserve">østergaard</t>
@@ -986,1169 +1250,1169 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="n">
-        <v>56.788</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.9068</v>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.6916</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.1767</v>
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.6642</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.932</v>
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.588</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.8998</v>
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>56.4689</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.6757</v>
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="n">
-        <v>56.1776</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.6257</v>
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="n">
-        <v>56.2981</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.6789</v>
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>56.7823</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.0583</v>
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.6676</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.9385</v>
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.5989</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.9201</v>
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56.6424</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10.1398</v>
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56.6213</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.0999</v>
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56.6246</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10.1143</v>
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56.6017</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.0525</v>
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56.5308</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.846</v>
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="n">
-        <v>56.5125</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.8652</v>
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="n">
-        <v>56.4887</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.8577</v>
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="n">
-        <v>56.438</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.5243</v>
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="n">
-        <v>56.4412</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.5822</v>
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="n">
-        <v>56.4108</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.4631</v>
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="n">
-        <v>56.3994</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.9121</v>
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="n">
-        <v>56.3475</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10.348</v>
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="n">
-        <v>56.3451</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.3313</v>
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="n">
-        <v>56.4046</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10.2419</v>
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" t="n">
-        <v>56.5982</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.94</v>
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="n">
-        <v>56.6957</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9.9969</v>
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="n">
-        <v>56.4064</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9.4469</v>
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" t="n">
-        <v>56.4923</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.8673</v>
+        <v>169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="n">
-        <v>56.4842</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9.8246</v>
+        <v>169</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" t="n">
-        <v>56.4819</v>
-      </c>
-      <c r="E31" t="n">
-        <v>9.8133</v>
+        <v>180</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -2156,540 +2420,540 @@
       <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" t="n">
-        <v>56.4893</v>
-      </c>
-      <c r="E32" t="n">
-        <v>9.8289</v>
+      <c r="D32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" t="s">
+        <v>187</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" t="n">
-        <v>56.6965</v>
-      </c>
-      <c r="E33" t="n">
-        <v>10.1707</v>
+        <v>191</v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" t="n">
-        <v>56.0031</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9.1681</v>
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" t="n">
-        <v>56.0004</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9.2328</v>
+        <v>202</v>
+      </c>
+      <c r="D35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" t="s">
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" t="n">
-        <v>56.3041</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9.1498</v>
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="n">
-        <v>56.359</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9.0997</v>
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" t="s">
+        <v>215</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" t="n">
-        <v>56.0425</v>
-      </c>
-      <c r="E38" t="n">
-        <v>8.9887</v>
+        <v>219</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" t="n">
-        <v>56.0699</v>
-      </c>
-      <c r="E39" t="n">
-        <v>8.9708</v>
+        <v>219</v>
+      </c>
+      <c r="D39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" t="s">
+        <v>226</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" t="n">
-        <v>56.0751</v>
-      </c>
-      <c r="E40" t="n">
-        <v>8.9724</v>
+        <v>219</v>
+      </c>
+      <c r="D40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" t="s">
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="O40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" t="n">
-        <v>56.1193</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9.0167</v>
+        <v>202</v>
+      </c>
+      <c r="D41" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" t="s">
+        <v>236</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" t="n">
-        <v>56.3143</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9.1422</v>
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" t="s">
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="O42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" t="n">
-        <v>56.3653</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9.0921</v>
+        <v>208</v>
+      </c>
+      <c r="D43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" t="s">
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="O43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" t="n">
-        <v>56.3488</v>
-      </c>
-      <c r="E44" t="n">
-        <v>9.0853</v>
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" t="s">
+        <v>251</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="n">
-        <v>56.3472</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9.096</v>
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" t="s">
+        <v>256</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="O45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2708,10 +2972,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
@@ -2719,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
@@ -2727,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4">
@@ -2735,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
@@ -2743,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6">
@@ -2751,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7">
@@ -2759,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8">
@@ -2767,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
@@ -2775,7 +3039,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -2783,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11">
@@ -2791,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12">
@@ -2799,7 +3063,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
@@ -2807,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14">
@@ -2815,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15">
@@ -2823,7 +3087,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P01_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P01_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -60,12 +60,108 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">løvskal landevej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogs, mires and fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wet thicket  (non-habitat type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biowide - River valleys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinkelvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toksvigvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mire (non-habitat type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hegildgårdvej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA074</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00406</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-07-11</t>
   </si>
   <si>
@@ -75,24 +171,24 @@
     <t xml:space="preserve">9.9068</t>
   </si>
   <si>
-    <t xml:space="preserve">natural_soil</t>
+    <t xml:space="preserve">91D0</t>
   </si>
   <si>
     <t xml:space="preserve">ilsø</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
+    <t xml:space="preserve">Forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bog woodland</t>
   </si>
   <si>
     <t xml:space="preserve">AA003</t>
   </si>
   <si>
-    <t xml:space="preserve">Biowide - River valleys</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00407</t>
   </si>
   <si>
@@ -105,9 +201,15 @@
     <t xml:space="preserve">10.1767</t>
   </si>
   <si>
+    <t xml:space="preserve">91E0</t>
+  </si>
+  <si>
     <t xml:space="preserve">havkær skov</t>
   </si>
   <si>
+    <t xml:space="preserve">Alluvial woodland</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA006</t>
   </si>
   <si>
@@ -141,9 +243,18 @@
     <t xml:space="preserve">9.8998</t>
   </si>
   <si>
+    <t xml:space="preserve">9990</t>
+  </si>
+  <si>
     <t xml:space="preserve">senderkær bæk</t>
   </si>
   <si>
+    <t xml:space="preserve">Forest (non-habitattype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deciduous trees</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA011</t>
   </si>
   <si>
@@ -159,18 +270,21 @@
     <t xml:space="preserve">9.6757</t>
   </si>
   <si>
+    <t xml:space="preserve">9920</t>
+  </si>
+  <si>
     <t xml:space="preserve">oerum</t>
   </si>
   <si>
+    <t xml:space="preserve">Willow</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA012</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00411</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-07-10</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.1776</t>
   </si>
   <si>
@@ -225,9 +339,18 @@
     <t xml:space="preserve">9.9385</t>
   </si>
   <si>
+    <t xml:space="preserve">7230</t>
+  </si>
+  <si>
     <t xml:space="preserve">kielstrup sø</t>
   </si>
   <si>
+    <t xml:space="preserve">Calcareous fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkaline fens</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA032</t>
   </si>
   <si>
@@ -258,9 +381,21 @@
     <t xml:space="preserve">10.1398</t>
   </si>
   <si>
+    <t xml:space="preserve">6431</t>
+  </si>
+  <si>
     <t xml:space="preserve">havndalsvej</t>
   </si>
   <si>
+    <t xml:space="preserve">Grassland formations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural meadow (6430 subtype)</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA034</t>
   </si>
   <si>
@@ -378,39 +513,6 @@
     <t xml:space="preserve">AA043</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">løvskal landevej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vinkelvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA045</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00426</t>
   </si>
   <si>
@@ -423,9 +525,15 @@
     <t xml:space="preserve">9.9121</t>
   </si>
   <si>
+    <t xml:space="preserve">6411</t>
+  </si>
+  <si>
     <t xml:space="preserve">gudenå engene</t>
   </si>
   <si>
+    <t xml:space="preserve">Natural meadow (6410 subtype)</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA048</t>
   </si>
   <si>
@@ -612,9 +720,18 @@
     <t xml:space="preserve">9.1681</t>
   </si>
   <si>
+    <t xml:space="preserve">7140</t>
+  </si>
+  <si>
     <t xml:space="preserve">fasterholt</t>
   </si>
   <si>
+    <t xml:space="preserve">Sphagnum acid bogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quaking bogs</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA065</t>
   </si>
   <si>
@@ -648,9 +765,15 @@
     <t xml:space="preserve">9.1498</t>
   </si>
   <si>
+    <t xml:space="preserve">6410</t>
+  </si>
+  <si>
     <t xml:space="preserve">kølvrå mose</t>
   </si>
   <si>
+    <t xml:space="preserve">Molinia meadows</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA067</t>
   </si>
   <si>
@@ -667,39 +790,6 @@
   </si>
   <si>
     <t xml:space="preserve">AA069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-08-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toksvigvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hegildgårdvej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA074</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00444</t>
@@ -865,17 +955,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -895,11 +980,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,1701 +1343,2045 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>87</v>
+      </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="s">
+        <v>111</v>
+      </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" t="s">
+        <v>126</v>
+      </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" t="s">
+        <v>111</v>
+      </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" t="s">
+        <v>126</v>
+      </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" t="s">
+        <v>111</v>
+      </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
         <v>122</v>
       </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
         <v>124</v>
       </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" t="s">
+      <c r="L20" t="s">
         <v>125</v>
       </c>
-      <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
       <c r="N21" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" t="s">
+        <v>56</v>
+      </c>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" t="s">
+        <v>170</v>
+      </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" t="s">
+        <v>172</v>
+      </c>
       <c r="N24" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" t="s">
+        <v>172</v>
+      </c>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="O25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" t="s">
+        <v>126</v>
+      </c>
       <c r="N26" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" t="s">
+        <v>170</v>
+      </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" t="s">
+        <v>125</v>
+      </c>
+      <c r="M27" t="s">
+        <v>172</v>
+      </c>
       <c r="N27" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
       <c r="H28" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>110</v>
+      </c>
+      <c r="M28" t="s">
+        <v>111</v>
+      </c>
       <c r="N28" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
       <c r="H29" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" t="s">
+        <v>111</v>
+      </c>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="O29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" t="s">
+        <v>56</v>
+      </c>
       <c r="N30" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K31" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>126</v>
+      </c>
       <c r="N31" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" t="s">
+        <v>170</v>
+      </c>
       <c r="H32" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" t="s">
+        <v>172</v>
+      </c>
       <c r="N32" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="O32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
       <c r="H33" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" t="s">
+        <v>56</v>
+      </c>
       <c r="N33" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" t="s">
+        <v>170</v>
+      </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" t="s">
+        <v>172</v>
+      </c>
       <c r="N34" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="O34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K35" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" t="s">
+        <v>126</v>
+      </c>
       <c r="N35" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" t="s">
+        <v>235</v>
+      </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>237</v>
+      </c>
+      <c r="M36" t="s">
+        <v>238</v>
+      </c>
       <c r="N36" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
       <c r="H37" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K37" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" t="s">
+        <v>87</v>
+      </c>
       <c r="N37" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" t="s">
+        <v>250</v>
+      </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" t="s">
+        <v>252</v>
+      </c>
       <c r="N38" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="O38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" t="s">
+        <v>172</v>
+      </c>
       <c r="N39" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" t="s">
+        <v>122</v>
+      </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>124</v>
+      </c>
+      <c r="L40" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" t="s">
+        <v>126</v>
+      </c>
       <c r="N40" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="O40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="E41" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" t="s">
+        <v>122</v>
+      </c>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" t="s">
+        <v>126</v>
+      </c>
       <c r="N41" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E42" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" t="s">
+        <v>170</v>
+      </c>
       <c r="H42" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>172</v>
+      </c>
       <c r="N42" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" t="s">
+        <v>122</v>
+      </c>
       <c r="H43" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>124</v>
+      </c>
+      <c r="L43" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" t="s">
+        <v>126</v>
+      </c>
       <c r="N43" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="O43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E44" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" t="s">
+        <v>170</v>
+      </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" t="s">
+        <v>172</v>
+      </c>
       <c r="N44" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E45" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" t="s">
+        <v>170</v>
+      </c>
       <c r="H45" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L45" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" t="s">
+        <v>172</v>
+      </c>
       <c r="N45" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="O45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2972,10 +3400,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -2983,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
@@ -2991,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
@@ -2999,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
@@ -3007,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
@@ -3015,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
@@ -3023,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
@@ -3031,7 +3459,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9">
@@ -3039,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
@@ -3047,7 +3475,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11">
@@ -3055,7 +3483,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
@@ -3063,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13">
@@ -3071,7 +3499,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
@@ -3079,7 +3507,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15">
@@ -3087,7 +3515,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
